--- a/Code/Results/Cases/Case_8_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.267039494157189</v>
+        <v>2.915955049899594</v>
       </c>
       <c r="C2">
-        <v>0.7877502242676258</v>
+        <v>0.8548807034876518</v>
       </c>
       <c r="D2">
-        <v>0.007553512190774825</v>
+        <v>0.008433198813246889</v>
       </c>
       <c r="E2">
-        <v>0.01959506975788106</v>
+        <v>0.02737378203003171</v>
       </c>
       <c r="F2">
-        <v>2.270137361071278</v>
+        <v>1.848543937668524</v>
       </c>
       <c r="G2">
-        <v>0.0008372818633278046</v>
+        <v>0.02933018487473271</v>
       </c>
       <c r="H2">
-        <v>0.01701100108091558</v>
+        <v>0.009026768839839522</v>
       </c>
       <c r="I2">
-        <v>0.01630325308760483</v>
+        <v>0.007016570529363442</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.216240829886139</v>
+        <v>0.9257742322264875</v>
       </c>
       <c r="L2">
-        <v>0.04572787735185813</v>
+        <v>0.3847652117561182</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.3110910832905631</v>
       </c>
       <c r="N2">
-        <v>0.2165265597911912</v>
+        <v>0.05551743249634811</v>
       </c>
       <c r="O2">
-        <v>0.5683496158230668</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.300341305050893</v>
+        <v>0.2482984830271278</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5341956505111014</v>
+      </c>
+      <c r="R2">
+        <v>1.078719282990736</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.865376056141145</v>
+        <v>2.556724402725195</v>
       </c>
       <c r="C3">
-        <v>0.6837470697598178</v>
+        <v>0.7407250017683111</v>
       </c>
       <c r="D3">
-        <v>0.006365322860300893</v>
+        <v>0.008004516206021606</v>
       </c>
       <c r="E3">
-        <v>0.01729721567362574</v>
+        <v>0.02562364068855416</v>
       </c>
       <c r="F3">
-        <v>2.116448006542598</v>
+        <v>1.722771598293178</v>
       </c>
       <c r="G3">
-        <v>0.0008427283035888347</v>
+        <v>0.03739533329492795</v>
       </c>
       <c r="H3">
-        <v>0.02257896770148504</v>
+        <v>0.01227034549745448</v>
       </c>
       <c r="I3">
-        <v>0.02199634275964346</v>
+        <v>0.009771183972146602</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.152403641283946</v>
+        <v>0.8809601099703102</v>
       </c>
       <c r="L3">
-        <v>0.04144481867295546</v>
+        <v>0.3762084284949481</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2874591883683664</v>
       </c>
       <c r="N3">
-        <v>0.1938220199860581</v>
+        <v>0.051756380229671</v>
       </c>
       <c r="O3">
-        <v>0.5005868158891715</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.328767309967567</v>
+        <v>0.2230485199505807</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4701046258754573</v>
+      </c>
+      <c r="R3">
+        <v>1.107947665751325</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.618950618413521</v>
+        <v>2.335245569745723</v>
       </c>
       <c r="C4">
-        <v>0.6206601759055275</v>
+        <v>0.6710902694466938</v>
       </c>
       <c r="D4">
-        <v>0.005652673857113655</v>
+        <v>0.00774063834515637</v>
       </c>
       <c r="E4">
-        <v>0.01591405586269357</v>
+        <v>0.02454799771043703</v>
       </c>
       <c r="F4">
-        <v>2.023006343905848</v>
+        <v>1.645571608961262</v>
       </c>
       <c r="G4">
-        <v>0.0008461854148111345</v>
+        <v>0.04301865762465873</v>
       </c>
       <c r="H4">
-        <v>0.02651299526411299</v>
+        <v>0.01458714580323917</v>
       </c>
       <c r="I4">
-        <v>0.02608412940214411</v>
+        <v>0.01181047846500105</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.113492698802375</v>
+        <v>0.853271713480126</v>
       </c>
       <c r="L4">
-        <v>0.03883940074803505</v>
+        <v>0.3705500717126142</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2737657366253359</v>
       </c>
       <c r="N4">
-        <v>0.1799677169482123</v>
+        <v>0.04944040245343473</v>
       </c>
       <c r="O4">
-        <v>0.4590643212657284</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.346490882773011</v>
+        <v>0.2076464519003096</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4306952419314385</v>
+      </c>
+      <c r="R4">
+        <v>1.126093036963553</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.516535890470379</v>
+        <v>2.24293500976836</v>
       </c>
       <c r="C5">
-        <v>0.5954286425486544</v>
+        <v>0.6431123216376591</v>
       </c>
       <c r="D5">
-        <v>0.005333582839549322</v>
+        <v>0.00761742288795908</v>
       </c>
       <c r="E5">
-        <v>0.01535149524210588</v>
+        <v>0.02410548990810124</v>
       </c>
       <c r="F5">
-        <v>1.983252565351407</v>
+        <v>1.612470375627396</v>
       </c>
       <c r="G5">
-        <v>0.0008476333937568592</v>
+        <v>0.04549005240267356</v>
       </c>
       <c r="H5">
-        <v>0.02825289511795837</v>
+        <v>0.01561730274314393</v>
       </c>
       <c r="I5">
-        <v>0.02799604636868969</v>
+        <v>0.01282914027482818</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.096416555616791</v>
+        <v>0.8408785249331672</v>
       </c>
       <c r="L5">
-        <v>0.037780492849814</v>
+        <v>0.3676903454308942</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2680436012660792</v>
       </c>
       <c r="N5">
-        <v>0.1744524005992361</v>
+        <v>0.04849658952633185</v>
       </c>
       <c r="O5">
-        <v>0.4419673216857447</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.353004562212995</v>
+        <v>0.2015048907220702</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4144411167651327</v>
+      </c>
+      <c r="R5">
+        <v>1.133042491805654</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.497070994295029</v>
+        <v>2.225374518041576</v>
       </c>
       <c r="C6">
-        <v>0.5916221013459904</v>
+        <v>0.6388377391053837</v>
       </c>
       <c r="D6">
-        <v>0.005241706596054385</v>
+        <v>0.007578321029669155</v>
       </c>
       <c r="E6">
-        <v>0.01525291041228094</v>
+        <v>0.02402789711337316</v>
       </c>
       <c r="F6">
-        <v>1.974363253598412</v>
+        <v>1.60497617281834</v>
       </c>
       <c r="G6">
-        <v>0.0008478880566789607</v>
+        <v>0.04593184408176043</v>
       </c>
       <c r="H6">
-        <v>0.0285649451476957</v>
+        <v>0.01580245838511113</v>
       </c>
       <c r="I6">
-        <v>0.02845623575985901</v>
+        <v>0.01313905656110759</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.092019697154655</v>
+        <v>0.837520578706382</v>
       </c>
       <c r="L6">
-        <v>0.03760352075865026</v>
+        <v>0.3666583602036155</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2666849639259681</v>
       </c>
       <c r="N6">
-        <v>0.1736746147699648</v>
+        <v>0.04834319020062949</v>
       </c>
       <c r="O6">
-        <v>0.4388952666374237</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.353148635643386</v>
+        <v>0.2006235053718228</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4115248550543242</v>
+      </c>
+      <c r="R6">
+        <v>1.133601510255154</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.610826308757964</v>
+        <v>2.318900494643742</v>
       </c>
       <c r="C7">
-        <v>0.6213404113014747</v>
+        <v>0.6657181506787424</v>
       </c>
       <c r="D7">
-        <v>0.005541051407007558</v>
+        <v>0.007534263044773226</v>
       </c>
       <c r="E7">
-        <v>0.01589136760268861</v>
+        <v>0.0244351109412948</v>
       </c>
       <c r="F7">
-        <v>2.016180670093661</v>
+        <v>1.629106489871276</v>
       </c>
       <c r="G7">
-        <v>0.000846238442615471</v>
+        <v>0.04370597447441216</v>
       </c>
       <c r="H7">
-        <v>0.02657695939397908</v>
+        <v>0.01467343221600775</v>
       </c>
       <c r="I7">
-        <v>0.02645557732952497</v>
+        <v>0.01222389366426047</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.108984086496349</v>
+        <v>0.8441740456713589</v>
       </c>
       <c r="L7">
-        <v>0.03882139900062231</v>
+        <v>0.3667652203396727</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2707433615827917</v>
       </c>
       <c r="N7">
-        <v>0.180268352845637</v>
+        <v>0.049354744707232</v>
       </c>
       <c r="O7">
-        <v>0.4581924761342222</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1.34402431763548</v>
+        <v>0.2075751769851948</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4284410200576616</v>
+      </c>
+      <c r="R7">
+        <v>1.122160315101187</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.11944422239884</v>
+        <v>2.753878651103207</v>
       </c>
       <c r="C8">
-        <v>0.7530740151008217</v>
+        <v>0.7966065325976786</v>
       </c>
       <c r="D8">
-        <v>0.0069960818266388</v>
+        <v>0.007735654726639396</v>
       </c>
       <c r="E8">
-        <v>0.0187755059585859</v>
+        <v>0.02643531686433587</v>
       </c>
       <c r="F8">
-        <v>2.208586792228317</v>
+        <v>1.762989136744949</v>
       </c>
       <c r="G8">
-        <v>0.0008391793964945826</v>
+        <v>0.03454303847296103</v>
       </c>
       <c r="H8">
-        <v>0.01886449418286851</v>
+        <v>0.0102302997628973</v>
       </c>
       <c r="I8">
-        <v>0.01854421396554429</v>
+        <v>0.00843856119434605</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.18848856051612</v>
+        <v>0.8879541449727526</v>
       </c>
       <c r="L8">
-        <v>0.04423929087918488</v>
+        <v>0.3729162283646659</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.294958395156911</v>
       </c>
       <c r="N8">
-        <v>0.2091791878574654</v>
+        <v>0.05395697688143386</v>
       </c>
       <c r="O8">
-        <v>0.5441034879705953</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1.306785389159707</v>
+        <v>0.2388507960569939</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5064714862661432</v>
+      </c>
+      <c r="R8">
+        <v>1.079404982794767</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.132414331555651</v>
+        <v>3.64399440959437</v>
       </c>
       <c r="C9">
-        <v>1.016753099267135</v>
+        <v>1.077361181349261</v>
       </c>
       <c r="D9">
-        <v>0.01022165100236094</v>
+        <v>0.008727629599242448</v>
       </c>
       <c r="E9">
-        <v>0.02474788608399425</v>
+        <v>0.03073139033987804</v>
       </c>
       <c r="F9">
-        <v>2.605872961592596</v>
+        <v>2.074218971041248</v>
       </c>
       <c r="G9">
-        <v>0.0008261493308208964</v>
+        <v>0.01849338928117472</v>
       </c>
       <c r="H9">
-        <v>0.008050130407590117</v>
+        <v>0.004043714111754304</v>
       </c>
       <c r="I9">
-        <v>0.00754634318563685</v>
+        <v>0.003233216909961811</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.354899725303966</v>
+        <v>0.9983728607102478</v>
       </c>
       <c r="L9">
-        <v>0.05516959539707855</v>
+        <v>0.3924781822895724</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3576719384691671</v>
       </c>
       <c r="N9">
-        <v>0.2660287983947001</v>
+        <v>0.06325601577600359</v>
       </c>
       <c r="O9">
-        <v>0.7147257684339507</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1.240536382415335</v>
+        <v>0.3017388840235498</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.6654919684811986</v>
+      </c>
+      <c r="R9">
+        <v>1.008482460808057</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.850130300856051</v>
+        <v>4.215599980762192</v>
       </c>
       <c r="C10">
-        <v>1.2129714710656</v>
+        <v>1.24653708060282</v>
       </c>
       <c r="D10">
-        <v>0.01281050303840559</v>
+        <v>0.008863355394373329</v>
       </c>
       <c r="E10">
-        <v>0.02994291956575612</v>
+        <v>0.03384753796420092</v>
       </c>
       <c r="F10">
-        <v>2.866729963373331</v>
+        <v>2.213075983337887</v>
       </c>
       <c r="G10">
-        <v>0.0008172597330900645</v>
+        <v>0.01878333520562592</v>
       </c>
       <c r="H10">
-        <v>0.003529913313851551</v>
+        <v>0.001767733740184241</v>
       </c>
       <c r="I10">
-        <v>0.003238460856868741</v>
+        <v>0.001699957249650552</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.458665818993694</v>
+        <v>1.033448800433121</v>
       </c>
       <c r="L10">
-        <v>0.06419437940179584</v>
+        <v>0.3885765771584389</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3901002568324827</v>
       </c>
       <c r="N10">
-        <v>0.2999270177718785</v>
+        <v>0.0706466656284146</v>
       </c>
       <c r="O10">
-        <v>0.8312801152731808</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>1.18193916743661</v>
+        <v>0.3370628592635398</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.7645270419722365</v>
+      </c>
+      <c r="R10">
+        <v>0.9427420047925938</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.923707657807824</v>
+        <v>4.182631417402945</v>
       </c>
       <c r="C11">
-        <v>1.270121029976224</v>
+        <v>1.222988625384346</v>
       </c>
       <c r="D11">
-        <v>0.01475623601224285</v>
+        <v>0.008890677586708584</v>
       </c>
       <c r="E11">
-        <v>0.03848630451009782</v>
+        <v>0.03926517706614163</v>
       </c>
       <c r="F11">
-        <v>2.675831820473704</v>
+        <v>1.938648758944083</v>
       </c>
       <c r="G11">
-        <v>0.0008148314098491705</v>
+        <v>0.052299788386307</v>
       </c>
       <c r="H11">
-        <v>0.02170033182948927</v>
+        <v>0.02034970333534147</v>
       </c>
       <c r="I11">
-        <v>0.003048853169872245</v>
+        <v>0.002184824858828094</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.338896951313131</v>
+        <v>0.8845368308292407</v>
       </c>
       <c r="L11">
-        <v>0.07843827072798959</v>
+        <v>0.3287594290728748</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3395466619968914</v>
       </c>
       <c r="N11">
-        <v>0.2439540418797321</v>
+        <v>0.08562192619275777</v>
       </c>
       <c r="O11">
-        <v>0.800941038933594</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1.072556584426962</v>
+        <v>0.2718830440332027</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7184391721159429</v>
+      </c>
+      <c r="R11">
+        <v>0.8802686309383287</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.841559675969449</v>
+        <v>4.076286850513043</v>
       </c>
       <c r="C12">
-        <v>1.274011414633833</v>
+        <v>1.187827527786055</v>
       </c>
       <c r="D12">
-        <v>0.01605265635530273</v>
+        <v>0.00921196748525599</v>
       </c>
       <c r="E12">
-        <v>0.04660837953423247</v>
+        <v>0.04500692758108826</v>
       </c>
       <c r="F12">
-        <v>2.473530023223375</v>
+        <v>1.733182874007952</v>
       </c>
       <c r="G12">
-        <v>0.0008144966200748753</v>
+        <v>0.07698769490950497</v>
       </c>
       <c r="H12">
-        <v>0.06052781854768341</v>
+        <v>0.05920865052635094</v>
       </c>
       <c r="I12">
-        <v>0.003001815328667057</v>
+        <v>0.002205076157271613</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.226257352367668</v>
+        <v>0.7821404602843529</v>
       </c>
       <c r="L12">
-        <v>0.09430801261309796</v>
+        <v>0.2907560273333161</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3012549191463947</v>
       </c>
       <c r="N12">
-        <v>0.1946865319448392</v>
+        <v>0.1022972740724164</v>
       </c>
       <c r="O12">
-        <v>0.7520851686266639</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1.00957680227177</v>
+        <v>0.2166707921806506</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.666025163589687</v>
+      </c>
+      <c r="R12">
+        <v>0.8669351082094181</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.624477746644914</v>
+        <v>3.920170668655999</v>
       </c>
       <c r="C13">
-        <v>1.238423702590012</v>
+        <v>1.157293096781302</v>
       </c>
       <c r="D13">
-        <v>0.01670237246665707</v>
+        <v>0.009748438665734049</v>
       </c>
       <c r="E13">
-        <v>0.05470206593149562</v>
+        <v>0.05225308938733697</v>
       </c>
       <c r="F13">
-        <v>2.241453793495367</v>
+        <v>1.575295368214569</v>
       </c>
       <c r="G13">
-        <v>0.0008158016491056654</v>
+        <v>0.07190119388857497</v>
       </c>
       <c r="H13">
-        <v>0.116933374360201</v>
+        <v>0.1153103687287995</v>
       </c>
       <c r="I13">
-        <v>0.003443914757273348</v>
+        <v>0.002329960814186904</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.106148604972539</v>
+        <v>0.7098914453977159</v>
       </c>
       <c r="L13">
-        <v>0.112051146178608</v>
+        <v>0.2661727820084856</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2714191673686415</v>
       </c>
       <c r="N13">
-        <v>0.1486891682544069</v>
+        <v>0.1215563797692525</v>
       </c>
       <c r="O13">
-        <v>0.6855505435758005</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9739667241690135</v>
+        <v>0.1670279877666516</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6078876220582643</v>
+      </c>
+      <c r="R13">
+        <v>0.8757961300720289</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.41075379437433</v>
+        <v>3.785007898280696</v>
       </c>
       <c r="C14">
-        <v>1.196164825225196</v>
+        <v>1.137214245379255</v>
       </c>
       <c r="D14">
-        <v>0.01682130968256246</v>
+        <v>0.0103920309280614</v>
       </c>
       <c r="E14">
-        <v>0.06053230873879301</v>
+        <v>0.05853830674995208</v>
       </c>
       <c r="F14">
-        <v>2.066150991936013</v>
+        <v>1.481166000039195</v>
       </c>
       <c r="G14">
-        <v>0.0008174598771527785</v>
+        <v>0.05603397868470239</v>
       </c>
       <c r="H14">
-        <v>0.1670105766760059</v>
+        <v>0.1649894858905441</v>
       </c>
       <c r="I14">
-        <v>0.004146439957750658</v>
+        <v>0.002598385336241904</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.018927879997356</v>
+        <v>0.6698942057404551</v>
       </c>
       <c r="L14">
-        <v>0.1259386822447794</v>
+        <v>0.2536505783611354</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2534633619532443</v>
       </c>
       <c r="N14">
-        <v>0.1191569186064356</v>
+        <v>0.136918612806781</v>
       </c>
       <c r="O14">
-        <v>0.6314037212775858</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9626653898379809</v>
+        <v>0.1356724193376095</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5642705620800967</v>
+      </c>
+      <c r="R14">
+        <v>0.8885384487366963</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.328219637107907</v>
+        <v>3.737288543211832</v>
       </c>
       <c r="C15">
-        <v>1.178074897888962</v>
+        <v>1.132427811554237</v>
       </c>
       <c r="D15">
-        <v>0.01665461926236844</v>
+        <v>0.01067849485154682</v>
       </c>
       <c r="E15">
-        <v>0.06165088969689236</v>
+        <v>0.06025267649567567</v>
       </c>
       <c r="F15">
-        <v>2.014941200228037</v>
+        <v>1.462626197385291</v>
       </c>
       <c r="G15">
-        <v>0.0008182388954729392</v>
+        <v>0.04794337530982062</v>
       </c>
       <c r="H15">
-        <v>0.1798757103760238</v>
+        <v>0.177654024841857</v>
       </c>
       <c r="I15">
-        <v>0.004601871975445704</v>
+        <v>0.002851110609121577</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9944914562561138</v>
+        <v>0.6632125665131667</v>
       </c>
       <c r="L15">
-        <v>0.1289656295196266</v>
+        <v>0.2521141423503224</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2497251490760988</v>
       </c>
       <c r="N15">
-        <v>0.1120758751806861</v>
+        <v>0.1405367492930907</v>
       </c>
       <c r="O15">
-        <v>0.6143202476259191</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.963691796033078</v>
+        <v>0.1283825767318874</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5517539997265359</v>
+      </c>
+      <c r="R15">
+        <v>0.8929630268102251</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.064443412387789</v>
+        <v>3.603815110596486</v>
       </c>
       <c r="C16">
-        <v>1.101274376754589</v>
+        <v>1.120947699520798</v>
       </c>
       <c r="D16">
-        <v>0.01522056606149391</v>
+        <v>0.01184002785239713</v>
       </c>
       <c r="E16">
-        <v>0.05738753109799077</v>
+        <v>0.05978144092079418</v>
       </c>
       <c r="F16">
-        <v>1.950535669706852</v>
+        <v>1.507227570775783</v>
       </c>
       <c r="G16">
-        <v>0.0008217761776006153</v>
+        <v>0.02123118494490583</v>
       </c>
       <c r="H16">
-        <v>0.169002154930439</v>
+        <v>0.1657380243396744</v>
       </c>
       <c r="I16">
-        <v>0.006380449259426157</v>
+        <v>0.003513318114424457</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9739914213809939</v>
+        <v>0.6954185235542241</v>
       </c>
       <c r="L16">
-        <v>0.1208258093422501</v>
+        <v>0.2680511579103353</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2566444299542141</v>
       </c>
       <c r="N16">
-        <v>0.1085453123565614</v>
+        <v>0.1342931640754657</v>
       </c>
       <c r="O16">
-        <v>0.5792959668185702</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9930689562725985</v>
+        <v>0.1268511777156647</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5336819056996518</v>
+      </c>
+      <c r="R16">
+        <v>0.904124828142475</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.974977272113392</v>
+        <v>3.559438194452582</v>
       </c>
       <c r="C17">
-        <v>1.065088510284966</v>
+        <v>1.113850647853212</v>
       </c>
       <c r="D17">
-        <v>0.01407752371477855</v>
+        <v>0.01204550690173178</v>
       </c>
       <c r="E17">
-        <v>0.05092433338706748</v>
+        <v>0.05514215416803658</v>
       </c>
       <c r="F17">
-        <v>1.9929128426148</v>
+        <v>1.581928166030281</v>
       </c>
       <c r="G17">
-        <v>0.0008236193005142679</v>
+        <v>0.01617567836801292</v>
       </c>
       <c r="H17">
-        <v>0.1323166886150773</v>
+        <v>0.1284554645484803</v>
       </c>
       <c r="I17">
-        <v>0.007438335046658473</v>
+        <v>0.003936075414738838</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.003725447657835</v>
+        <v>0.7375125221250585</v>
       </c>
       <c r="L17">
-        <v>0.1068375837470015</v>
+        <v>0.2861572135138744</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2694558737792576</v>
       </c>
       <c r="N17">
-        <v>0.1207582741894697</v>
+        <v>0.1205658385844472</v>
       </c>
       <c r="O17">
-        <v>0.5807786750688209</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1.020774787074274</v>
+        <v>0.1415341506895089</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.541073294151083</v>
+      </c>
+      <c r="R17">
+        <v>0.9126610673011708</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.029561060343894</v>
+        <v>3.611791849051144</v>
       </c>
       <c r="C18">
-        <v>1.058133779578952</v>
+        <v>1.121877326775405</v>
       </c>
       <c r="D18">
-        <v>0.01314963151481052</v>
+        <v>0.0115796624897655</v>
       </c>
       <c r="E18">
-        <v>0.04274143961906596</v>
+        <v>0.04779570379311338</v>
       </c>
       <c r="F18">
-        <v>2.139357501892079</v>
+        <v>1.71678449512531</v>
       </c>
       <c r="G18">
-        <v>0.0008241248761291901</v>
+        <v>0.01496257915175692</v>
       </c>
       <c r="H18">
-        <v>0.07970222888699396</v>
+        <v>0.07570253871989507</v>
       </c>
       <c r="I18">
-        <v>0.007417813452855526</v>
+        <v>0.003721366613320676</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.085306352478668</v>
+        <v>0.8061604288879352</v>
       </c>
       <c r="L18">
-        <v>0.08878721616093443</v>
+        <v>0.3129445692640971</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.293852110730505</v>
       </c>
       <c r="N18">
-        <v>0.1507290842680149</v>
+        <v>0.1016350869059224</v>
       </c>
       <c r="O18">
-        <v>0.6147754310049436</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1.05763087215805</v>
+        <v>0.1753951774629599</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5752254773764207</v>
+      </c>
+      <c r="R18">
+        <v>0.9229062468543487</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.183688004649468</v>
+        <v>3.735287811143735</v>
       </c>
       <c r="C19">
-        <v>1.076845796184671</v>
+        <v>1.14881701624887</v>
       </c>
       <c r="D19">
-        <v>0.01223649739717203</v>
+        <v>0.01067458656087972</v>
       </c>
       <c r="E19">
-        <v>0.03501576805028961</v>
+        <v>0.04036981545883478</v>
       </c>
       <c r="F19">
-        <v>2.354739403093475</v>
+        <v>1.893794816927453</v>
       </c>
       <c r="G19">
-        <v>0.0008234987647257666</v>
+        <v>0.01406476946750956</v>
       </c>
       <c r="H19">
-        <v>0.03371204413948448</v>
+        <v>0.0300183109044454</v>
       </c>
       <c r="I19">
-        <v>0.007072746400933028</v>
+        <v>0.003664928620932706</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.20014541232527</v>
+        <v>0.8923314041046382</v>
       </c>
       <c r="L19">
-        <v>0.07280538761919786</v>
+        <v>0.3451109576057902</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3262708642954735</v>
       </c>
       <c r="N19">
-        <v>0.1981133977364919</v>
+        <v>0.08392602840975272</v>
       </c>
       <c r="O19">
-        <v>0.6725629249299061</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>1.106862953455465</v>
+        <v>0.2279781666424867</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6296888454347283</v>
+      </c>
+      <c r="R19">
+        <v>0.9394704787157142</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.638261148706761</v>
+        <v>4.079206590248418</v>
       </c>
       <c r="C20">
-        <v>1.164047077696466</v>
+        <v>1.227239754645154</v>
       </c>
       <c r="D20">
-        <v>0.01177456308821689</v>
+        <v>0.009131266783180436</v>
       </c>
       <c r="E20">
-        <v>0.02851899660051593</v>
+        <v>0.03337098379973646</v>
       </c>
       <c r="F20">
-        <v>2.776473732660079</v>
+        <v>2.196264366785215</v>
       </c>
       <c r="G20">
-        <v>0.0008196633965031935</v>
+        <v>0.01327552680583111</v>
       </c>
       <c r="H20">
-        <v>0.004542596259090814</v>
+        <v>0.002199484542728225</v>
       </c>
       <c r="I20">
-        <v>0.005014754638330565</v>
+        <v>0.002928123037998276</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.41706419016225</v>
+        <v>1.031825869482482</v>
       </c>
       <c r="L20">
-        <v>0.06180546358379679</v>
+        <v>0.3923530365947627</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3843590706543267</v>
       </c>
       <c r="N20">
-        <v>0.2918086708074412</v>
+        <v>0.06910411620736312</v>
       </c>
       <c r="O20">
-        <v>0.7981205700734577</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>1.189505011850173</v>
+        <v>0.329890086680706</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.7416540184980818</v>
+      </c>
+      <c r="R20">
+        <v>0.9619834262158307</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.238527284021018</v>
+        <v>4.376604022509696</v>
       </c>
       <c r="C21">
-        <v>1.322502905183285</v>
+        <v>1.248022299057652</v>
       </c>
       <c r="D21">
-        <v>0.01375856541678644</v>
+        <v>0.008066682261036018</v>
       </c>
       <c r="E21">
-        <v>0.03181181951426204</v>
+        <v>0.03348564214976957</v>
       </c>
       <c r="F21">
-        <v>3.038121798210511</v>
+        <v>2.154977115578262</v>
       </c>
       <c r="G21">
-        <v>0.0008126854541485966</v>
+        <v>0.07252627668202649</v>
       </c>
       <c r="H21">
-        <v>0.001617343089077128</v>
+        <v>0.0008356490214402879</v>
       </c>
       <c r="I21">
-        <v>0.002621737025851445</v>
+        <v>0.002264484238284403</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.529833479960146</v>
+        <v>0.9854898010732995</v>
       </c>
       <c r="L21">
-        <v>0.06786935277359518</v>
+        <v>0.3635763083159205</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3808257216278932</v>
       </c>
       <c r="N21">
-        <v>0.3314636969656277</v>
+        <v>0.07170099724015522</v>
       </c>
       <c r="O21">
-        <v>0.903208729351519</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>1.163076627319157</v>
+        <v>0.3645971229121727</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.8030878794825185</v>
+      </c>
+      <c r="R21">
+        <v>0.8944287467167067</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.627812246108817</v>
+        <v>4.551396835981166</v>
       </c>
       <c r="C22">
-        <v>1.424337969794635</v>
+        <v>1.250880248325245</v>
       </c>
       <c r="D22">
-        <v>0.01530314436654479</v>
+        <v>0.008798439870837615</v>
       </c>
       <c r="E22">
-        <v>0.03434408492675534</v>
+        <v>0.03405748605874415</v>
       </c>
       <c r="F22">
-        <v>3.201588758589736</v>
+        <v>2.108418315319298</v>
       </c>
       <c r="G22">
-        <v>0.000808255363633002</v>
+        <v>0.160180888922099</v>
       </c>
       <c r="H22">
-        <v>0.000568718244308819</v>
+        <v>0.0003496659382185019</v>
       </c>
       <c r="I22">
-        <v>0.001584617355972817</v>
+        <v>0.001738177252867068</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.600307253687447</v>
+        <v>0.9472711726918703</v>
       </c>
       <c r="L22">
-        <v>0.07229428291655537</v>
+        <v>0.3428711463620076</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3749197221970348</v>
       </c>
       <c r="N22">
-        <v>0.3526069726773642</v>
+        <v>0.07390463579930184</v>
       </c>
       <c r="O22">
-        <v>0.9682947366737977</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>1.143900180029171</v>
+        <v>0.3813856779410116</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.8369459210084855</v>
+      </c>
+      <c r="R22">
+        <v>0.8553857507297364</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.428241845764433</v>
+        <v>4.490125958080455</v>
       </c>
       <c r="C23">
-        <v>1.36860252072114</v>
+        <v>1.263805167763508</v>
       </c>
       <c r="D23">
-        <v>0.01460332709251944</v>
+        <v>0.00820674590522219</v>
       </c>
       <c r="E23">
-        <v>0.0330047220897276</v>
+        <v>0.03389293858007214</v>
       </c>
       <c r="F23">
-        <v>3.121667343817052</v>
+        <v>2.165203256922652</v>
       </c>
       <c r="G23">
-        <v>0.000810579080628452</v>
+        <v>0.09488706399967839</v>
       </c>
       <c r="H23">
-        <v>0.001051905760287575</v>
+        <v>0.0005598636577983651</v>
       </c>
       <c r="I23">
-        <v>0.001736820456312849</v>
+        <v>0.001605509766712032</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.567711181519641</v>
+        <v>0.9840715096767667</v>
       </c>
       <c r="L23">
-        <v>0.0699288940670808</v>
+        <v>0.3595290564868208</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3847450799633307</v>
       </c>
       <c r="N23">
-        <v>0.3408421805063568</v>
+        <v>0.07289840834588013</v>
       </c>
       <c r="O23">
-        <v>0.9343223338805728</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>1.156816825361986</v>
+        <v>0.3729699187897495</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.8235805242410095</v>
+      </c>
+      <c r="R23">
+        <v>0.8788086837374083</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.663055273337704</v>
+        <v>4.100963307497636</v>
       </c>
       <c r="C24">
-        <v>1.162757737469917</v>
+        <v>1.227679533133255</v>
       </c>
       <c r="D24">
-        <v>0.01186473091240003</v>
+        <v>0.00913170613380565</v>
       </c>
       <c r="E24">
-        <v>0.02807705544261729</v>
+        <v>0.03298255628596269</v>
       </c>
       <c r="F24">
-        <v>2.811493130185511</v>
+        <v>2.226618097677587</v>
       </c>
       <c r="G24">
-        <v>0.0008195829600775527</v>
+        <v>0.01300259307338347</v>
       </c>
       <c r="H24">
-        <v>0.004305696119122238</v>
+        <v>0.002005028594593394</v>
       </c>
       <c r="I24">
-        <v>0.004439461703119818</v>
+        <v>0.002292997348794401</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.43794213717932</v>
+        <v>1.048541702026746</v>
       </c>
       <c r="L24">
-        <v>0.06119448287721596</v>
+        <v>0.3986288833422549</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3906080260587217</v>
       </c>
       <c r="N24">
-        <v>0.2974226294883806</v>
+        <v>0.0682339388832407</v>
       </c>
       <c r="O24">
-        <v>0.805156039199332</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>1.202425895842879</v>
+        <v>0.3361607523002021</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.7484352773901861</v>
+      </c>
+      <c r="R24">
+        <v>0.968659500005419</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.845212770867306</v>
+        <v>3.405806231504471</v>
       </c>
       <c r="C25">
-        <v>0.9463581223309347</v>
+        <v>1.011458883191324</v>
       </c>
       <c r="D25">
-        <v>0.009126056012853212</v>
+        <v>0.00857432671231706</v>
       </c>
       <c r="E25">
-        <v>0.02306167347537702</v>
+        <v>0.02968195757860403</v>
       </c>
       <c r="F25">
-        <v>2.485813857636643</v>
+        <v>1.995120555995257</v>
       </c>
       <c r="G25">
-        <v>0.0008296406634950344</v>
+        <v>0.02097588534741668</v>
       </c>
       <c r="H25">
-        <v>0.01051017348677142</v>
+        <v>0.005385974106755564</v>
       </c>
       <c r="I25">
-        <v>0.01046411618238441</v>
+        <v>0.004834915762296887</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.301725061261777</v>
+        <v>0.9699128670759976</v>
       </c>
       <c r="L25">
-        <v>0.05215671072770434</v>
+        <v>0.3880324032516995</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3404534358280742</v>
       </c>
       <c r="N25">
-        <v>0.2512311912192615</v>
+        <v>0.06087852185433285</v>
       </c>
       <c r="O25">
-        <v>0.6672186622540721</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>1.253820532997864</v>
+        <v>0.2858373447579083</v>
       </c>
       <c r="Q25">
+        <v>0.6234962384964717</v>
+      </c>
+      <c r="R25">
+        <v>1.0279453000629</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
